--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26314,19 +26316,19 @@
         <v>47744.68038805921</v>
       </c>
       <c r="C2" t="n">
-        <v>47744.68038805921</v>
+        <v>47744.6803880592</v>
       </c>
       <c r="D2" t="n">
         <v>47744.68038805921</v>
       </c>
       <c r="E2" t="n">
+        <v>47744.6803880592</v>
+      </c>
+      <c r="F2" t="n">
+        <v>47744.68038805919</v>
+      </c>
+      <c r="G2" t="n">
         <v>47744.68038805921</v>
-      </c>
-      <c r="F2" t="n">
-        <v>47744.68038805921</v>
-      </c>
-      <c r="G2" t="n">
-        <v>47744.6803880592</v>
       </c>
       <c r="H2" t="n">
         <v>47744.68038805921</v>
@@ -26335,7 +26337,7 @@
         <v>47744.6803880592</v>
       </c>
       <c r="J2" t="n">
-        <v>47744.6803880592</v>
+        <v>47744.68038805921</v>
       </c>
       <c r="K2" t="n">
         <v>47744.68038805921</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7102.777562189323</v>
+        <v>-7102.77756218932</v>
       </c>
       <c r="C6" t="n">
-        <v>-7102.777562189323</v>
+        <v>-7102.777562189327</v>
       </c>
       <c r="D6" t="n">
-        <v>-7102.777562189316</v>
+        <v>-7102.77756218932</v>
       </c>
       <c r="E6" t="n">
+        <v>26524.82243781067</v>
+      </c>
+      <c r="F6" t="n">
+        <v>26524.82243781066</v>
+      </c>
+      <c r="G6" t="n">
         <v>26524.82243781068</v>
-      </c>
-      <c r="F6" t="n">
-        <v>26524.82243781068</v>
-      </c>
-      <c r="G6" t="n">
-        <v>26524.82243781067</v>
       </c>
       <c r="H6" t="n">
         <v>26524.82243781068</v>
@@ -26543,7 +26545,7 @@
         <v>26524.82243781067</v>
       </c>
       <c r="J6" t="n">
-        <v>26524.82243781067</v>
+        <v>26524.82243781068</v>
       </c>
       <c r="K6" t="n">
         <v>26524.82243781068</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129935.3487747468</v>
+        <v>4075.095936891811</v>
       </c>
     </row>
     <row r="7">
@@ -26322,10 +26322,10 @@
         <v>47744.68038805921</v>
       </c>
       <c r="E2" t="n">
-        <v>47744.6803880592</v>
+        <v>47744.68038805921</v>
       </c>
       <c r="F2" t="n">
-        <v>47744.68038805919</v>
+        <v>47744.68038805921</v>
       </c>
       <c r="G2" t="n">
         <v>47744.68038805921</v>
@@ -26334,7 +26334,7 @@
         <v>47744.68038805921</v>
       </c>
       <c r="I2" t="n">
-        <v>47744.6803880592</v>
+        <v>47744.68038805921</v>
       </c>
       <c r="J2" t="n">
         <v>47744.68038805921</v>
@@ -26352,7 +26352,7 @@
         <v>47744.68038805921</v>
       </c>
       <c r="O2" t="n">
-        <v>47744.68038805921</v>
+        <v>47744.6803880592</v>
       </c>
       <c r="P2" t="n">
         <v>47744.6803880592</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7102.77756218932</v>
+        <v>-22145.7982900006</v>
       </c>
       <c r="C6" t="n">
-        <v>-7102.777562189327</v>
+        <v>-22145.79829000061</v>
       </c>
       <c r="D6" t="n">
-        <v>-7102.77756218932</v>
+        <v>-22145.7982900006</v>
       </c>
       <c r="E6" t="n">
-        <v>26524.82243781067</v>
+        <v>11481.8017099994</v>
       </c>
       <c r="F6" t="n">
-        <v>26524.82243781066</v>
+        <v>11481.8017099994</v>
       </c>
       <c r="G6" t="n">
-        <v>26524.82243781068</v>
+        <v>11481.8017099994</v>
       </c>
       <c r="H6" t="n">
-        <v>26524.82243781068</v>
+        <v>11481.8017099994</v>
       </c>
       <c r="I6" t="n">
-        <v>26524.82243781067</v>
+        <v>11481.8017099994</v>
       </c>
       <c r="J6" t="n">
-        <v>26524.82243781068</v>
+        <v>11481.8017099994</v>
       </c>
       <c r="K6" t="n">
-        <v>26524.82243781068</v>
+        <v>11481.8017099994</v>
       </c>
       <c r="L6" t="n">
-        <v>26524.82243781068</v>
+        <v>11481.8017099994</v>
       </c>
       <c r="M6" t="n">
-        <v>26524.82243781068</v>
+        <v>11481.8017099994</v>
       </c>
       <c r="N6" t="n">
-        <v>26524.82243781068</v>
+        <v>11481.8017099994</v>
       </c>
       <c r="O6" t="n">
-        <v>26524.82243781068</v>
+        <v>11481.80170999939</v>
       </c>
       <c r="P6" t="n">
-        <v>26524.82243781067</v>
+        <v>11481.80170999939</v>
       </c>
     </row>
   </sheetData>
